--- a/medicine/Sexualité et sexologie/Team_Moore/Team_Moore.xlsx
+++ b/medicine/Sexualité et sexologie/Team_Moore/Team_Moore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La team Moore (du nom de ses fondateurs Steven et Neila Moore) est un groupe de citoyens activistes anti-pédocriminalité, résidant en France, en Suisse et en Belgique.
 </t>
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La team Moore s'inspire des méthodes des chasseurs de pédocriminels anglo-saxons, actifs depuis le début des années 2010[1].
-La team Moore est créée en avril 2019 sur l'île de La Réunion[1], lors du piège d'un présumé pédophile de 85 ans résidant à La Réunion par Steven Moore, un père de famille français originaire de Toulouse, qui a permis son arrestation[1],[2]. Elle est co-fondée par Neila Moore[3].
-En novembre 2019, la team Moore est présentée dans un reportage du magazine Envoyé spécial[4].
-Fin janvier 2023, Neila Moore est invitée dans l'émission télévisée Touche pas à mon poste ![5],[6].
-Début février 2023, le dirigeant d'un club de football de la Haute-Saône comparait en justice après avoir envoyé du contenu pornographique à un profil de la team Moore du nom de Camille, 12 ans[7]. Il est condamné à un an de prison avec sursis[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La team Moore s'inspire des méthodes des chasseurs de pédocriminels anglo-saxons, actifs depuis le début des années 2010.
+La team Moore est créée en avril 2019 sur l'île de La Réunion, lors du piège d'un présumé pédophile de 85 ans résidant à La Réunion par Steven Moore, un père de famille français originaire de Toulouse, qui a permis son arrestation,. Elle est co-fondée par Neila Moore.
+En novembre 2019, la team Moore est présentée dans un reportage du magazine Envoyé spécial.
+Fin janvier 2023, Neila Moore est invitée dans l'émission télévisée Touche pas à mon poste !,.
+Début février 2023, le dirigeant d'un club de football de la Haute-Saône comparait en justice après avoir envoyé du contenu pornographique à un profil de la team Moore du nom de Camille, 12 ans. Il est condamné à un an de prison avec sursis.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La team Moore est composée de citoyens ordinaires, au nombre d'une cinquantaine en janvier 2023[3]. Ils recourent à de faux profils d'enfants âgés de 12 à 15 ans, créés sur les réseaux sociaux[3].
-D'après une enquête publiée dans Le Monde en janvier 2023, leur démarche « donne des résultats », mais elle crée un malaise[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La team Moore est composée de citoyens ordinaires, au nombre d'une cinquantaine en janvier 2023. Ils recourent à de faux profils d'enfants âgés de 12 à 15 ans, créés sur les réseaux sociaux.
+D'après une enquête publiée dans Le Monde en janvier 2023, leur démarche « donne des résultats », mais elle crée un malaise.
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Militantisme politique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steven Moore souhaite l'application de peines judiciaires plus lourdes contre les pédocriminels, soulignant que les peines encourues pour des propositions sexuelles à des enfants sur internet sont, en France (en 2021), aussi légères que les peines encourues par un SDF qui vole de la nourriture[2].
-Neila Moore a publié en janvier 2023 le livre Les prédateurs sont dans la poche de votre enfant, pour sensibiliser au danger pédocriminel sur internet[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steven Moore souhaite l'application de peines judiciaires plus lourdes contre les pédocriminels, soulignant que les peines encourues pour des propositions sexuelles à des enfants sur internet sont, en France (en 2021), aussi légères que les peines encourues par un SDF qui vole de la nourriture.
+Neila Moore a publié en janvier 2023 le livre Les prédateurs sont dans la poche de votre enfant, pour sensibiliser au danger pédocriminel sur internet.
 </t>
         </is>
       </c>
